--- a/Metadata_Netlogo-Grid-Extension.xlsx
+++ b/Metadata_Netlogo-Grid-Extension.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Cambridge University)\2019_Cambridge\[Programming]\Netlogo\Dissertation_Chapter4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yun-ile/Dropbox (Cambridge University)/2019_Cambridge/[Programming]/Netlogo/Dissertation_Chapter4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1219C1C9-99D8-452A-BE68-F23B4FC07E53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7667D79-9495-0642-8C98-2A6E4726CD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8292" xr2:uid="{030BE748-7F24-4D18-B795-931CF89EA0AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{030BE748-7F24-4D18-B795-931CF89EA0AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Gangnam</t>
   </si>
@@ -118,17 +124,36 @@
   </si>
   <si>
     <t>nrows-netlogo</t>
+  </si>
+  <si>
+    <t>total_patch_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -470,20 +495,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55889897-963B-4810-AED8-3DEF0E2FEFC4}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -502,470 +527,581 @@
       <c r="F1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>192</v>
+      </c>
+      <c r="D2">
+        <v>104</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E26" si="0">C2-1</f>
+        <v>191</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F26" si="1">D2-1</f>
+        <v>103</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G26" si="2">C2*D2</f>
+        <v>19968</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>144</v>
+      </c>
+      <c r="D3">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>27360</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>182</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>29666</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>192</v>
+      </c>
+      <c r="D5">
+        <v>162</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>31104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>185</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>31265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>163</v>
+      </c>
+      <c r="D7">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>31948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>228</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>36480</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>141</v>
+      </c>
+      <c r="D9">
+        <v>259</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>36519</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>206</v>
+      </c>
+      <c r="D10">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>197</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>39400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>249</v>
+      </c>
+      <c r="D12">
+        <v>165</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>41085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>267</v>
+      </c>
+      <c r="D13">
+        <v>159</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>209</v>
+      </c>
+      <c r="D14">
+        <v>241</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>50369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>326</v>
-      </c>
-      <c r="D2">
-        <v>297</v>
-      </c>
-      <c r="E2">
-        <f>C2-1</f>
-        <v>325</v>
-      </c>
-      <c r="F2">
-        <f>D2-1</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="C15">
+        <v>218</v>
+      </c>
+      <c r="D15">
+        <v>237</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>51666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>218</v>
+      </c>
+      <c r="D16">
+        <v>245</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>53410</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>263</v>
+      </c>
+      <c r="D17">
+        <v>218</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>57334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C18">
+        <v>208</v>
+      </c>
+      <c r="D18">
+        <v>281</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>58448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>285</v>
+      </c>
+      <c r="D19">
+        <v>219</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
-      <c r="D3">
-        <v>237</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">C3-1</f>
-        <v>217</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F26" si="1">D3-1</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>62415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>209</v>
+      </c>
+      <c r="D20">
+        <v>304</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="D4">
-        <v>281</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>63536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>314</v>
+      </c>
+      <c r="D21">
+        <v>228</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>71592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
         <v>280</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>370</v>
-      </c>
-      <c r="D5">
+      <c r="D22">
         <v>289</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>369</v>
-      </c>
-      <c r="F5">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>263</v>
-      </c>
-      <c r="D6">
-        <v>218</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>169</v>
-      </c>
-      <c r="D7">
-        <v>185</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>267</v>
-      </c>
-      <c r="D8">
-        <v>159</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>163</v>
-      </c>
-      <c r="D9">
-        <v>196</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>209</v>
-      </c>
-      <c r="D10">
-        <v>304</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>141</v>
-      </c>
-      <c r="D11">
-        <v>259</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>163</v>
-      </c>
-      <c r="D12">
-        <v>182</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>249</v>
-      </c>
-      <c r="D13">
-        <v>165</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>314</v>
-      </c>
-      <c r="D14">
-        <v>228</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>313</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-      <c r="D15">
-        <v>197</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>199</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>343</v>
-      </c>
-      <c r="D16">
-        <v>368</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>342</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17">
-        <v>192</v>
-      </c>
-      <c r="D17">
-        <v>162</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>285</v>
-      </c>
-      <c r="D18">
-        <v>219</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>284</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>280</v>
-      </c>
-      <c r="D19">
-        <v>289</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>279</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>206</v>
-      </c>
-      <c r="D20">
-        <v>190</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>209</v>
-      </c>
-      <c r="D21">
-        <v>241</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>228</v>
-      </c>
-      <c r="D22">
-        <v>160</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>227</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>80920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -986,74 +1122,97 @@
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>81355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="D24">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>296</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>96822</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>192</v>
+        <v>370</v>
       </c>
       <c r="D25">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>288</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>106930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="D26">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>367</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>126224</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+    <sortCondition ref="G1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>